--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_342__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_342__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,79 +5990,79 @@
                   <c:v>56.19562911987305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.73703384399414</c:v>
+                  <c:v>38.73703002929688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.65355682373047</c:v>
+                  <c:v>35.65356063842773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.4365234375</c:v>
+                  <c:v>61.43653106689453</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>52.13033676147461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.42958450317383</c:v>
+                  <c:v>47.42958831787109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.171237468719482</c:v>
+                  <c:v>2.17123818397522</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>49.16780471801758</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.76929473876953</c:v>
+                  <c:v>40.769287109375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.902230262756348</c:v>
+                  <c:v>1.902231454849243</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>36.64902114868164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.16143417358398</c:v>
+                  <c:v>44.16143798828125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.72751617431641</c:v>
+                  <c:v>48.72751235961914</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.077465057373047</c:v>
+                  <c:v>2.077466249465942</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>46.39711380004883</c:v>
@@ -6071,37 +6071,37 @@
                   <c:v>29.20753288269043</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.8506189584732056</c:v>
+                  <c:v>0.8506201505661011</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38.12461090087891</c:v>
+                  <c:v>38.12461853027344</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.359209060668945</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>40.10685729980469</c:v>
@@ -6110,34 +6110,34 @@
                   <c:v>39.58983993530273</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3.344802379608154</c:v>
+                  <c:v>-3.344802856445312</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.506447434425354</c:v>
+                  <c:v>1.50644862651825</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26.99756813049316</c:v>
+                  <c:v>26.99757385253906</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.200654029846191</c:v>
+                  <c:v>-2.2006516456604</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-6.761429309844971</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.3887618482112885</c:v>
+                  <c:v>-0.3887606263160706</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57.62517547607422</c:v>
+                  <c:v>57.62517929077148</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>32.20169830322266</c:v>
@@ -6146,49 +6146,49 @@
                   <c:v>51.33225631713867</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>50.1681022644043</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.795576930046082</c:v>
+                  <c:v>1.795578122138977</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>37.09927368164062</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44.01212692260742</c:v>
+                  <c:v>44.01213455200195</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>27.91050720214844</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37.79776382446289</c:v>
+                  <c:v>37.79777526855469</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45.69425964355469</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>43.44441223144531</c:v>
@@ -6200,7 +6200,7 @@
                   <c:v>31.91301727294922</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>40.48280715942383</c:v>
+                  <c:v>40.48281478881836</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>55.79058074951172</c:v>
@@ -6212,79 +6212,79 @@
                   <c:v>32.10633850097656</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>29.63261795043945</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-5.724538803100586</c:v>
+                  <c:v>-5.724543571472168</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>26.61478042602539</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.362977981567383</c:v>
+                  <c:v>4.362985134124756</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>59.60760116577148</c:v>
+                  <c:v>59.60760879516602</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>50.46030044555664</c:v>
+                  <c:v>50.46030426025391</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>22.3062572479248</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>36.30749893188477</c:v>
+                  <c:v>36.30750274658203</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.706264495849609</c:v>
+                  <c:v>9.706265449523926</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.8136376142501831</c:v>
+                  <c:v>0.8136388063430786</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>49.58943176269531</c:v>
+                  <c:v>49.58943557739258</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>40.54241943359375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>50.8524055480957</c:v>
+                  <c:v>50.85240936279297</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>36.19760131835938</c:v>
+                  <c:v>36.19759750366211</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>26.19886779785156</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.029147624969482</c:v>
+                  <c:v>2.029148101806641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>38.73703384399414</v>
+        <v>38.73703002929688</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>35.65355682373047</v>
+        <v>35.65356063842773</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>61.4365234375</v>
+        <v>61.43653106689453</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>47.42958450317383</v>
+        <v>47.42958831787109</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.171237468719482</v>
+        <v>2.17123818397522</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>40.76929473876953</v>
+        <v>40.769287109375</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.902230262756348</v>
+        <v>1.902231454849243</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>44.16143417358398</v>
+        <v>44.16143798828125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>48.72751617431641</v>
+        <v>48.72751235961914</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.077465057373047</v>
+        <v>2.077466249465942</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.8506189584732056</v>
+        <v>0.8506201505661011</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>38.12461090087891</v>
+        <v>38.12461853027344</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-3.344802379608154</v>
+        <v>-3.344802856445312</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.506447434425354</v>
+        <v>1.50644862651825</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>26.99756813049316</v>
+        <v>26.99757385253906</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-2.200654029846191</v>
+        <v>-2.2006516456604</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.3887618482112885</v>
+        <v>-0.3887606263160706</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>57.62517547607422</v>
+        <v>57.62517929077148</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.795576930046082</v>
+        <v>1.795578122138977</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>44.01212692260742</v>
+        <v>44.01213455200195</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>37.79776382446289</v>
+        <v>37.79777526855469</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>40.48280715942383</v>
+        <v>40.48281478881836</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>-5.724538803100586</v>
+        <v>-5.724543571472168</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>4.362977981567383</v>
+        <v>4.362985134124756</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>59.60760116577148</v>
+        <v>59.60760879516602</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>50.46030044555664</v>
+        <v>50.46030426025391</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>36.30749893188477</v>
+        <v>36.30750274658203</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>9.706264495849609</v>
+        <v>9.706265449523926</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.8136376142501831</v>
+        <v>0.8136388063430786</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>49.58943176269531</v>
+        <v>49.58943557739258</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>50.8524055480957</v>
+        <v>50.85240936279297</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>36.19760131835938</v>
+        <v>36.19759750366211</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>2.029147624969482</v>
+        <v>2.029148101806641</v>
       </c>
     </row>
     <row r="102" spans="1:6">
